--- a/Code/Results/Cases/Case_1_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9882946054546136</v>
+        <v>1.02303035848436</v>
       </c>
       <c r="D2">
-        <v>1.032641705679424</v>
+        <v>1.042105295979751</v>
       </c>
       <c r="E2">
-        <v>1.008513747185299</v>
+        <v>1.034387117077619</v>
       </c>
       <c r="F2">
-        <v>1.024779257135507</v>
+        <v>1.047097730243341</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04824075181183</v>
+        <v>1.034113813033221</v>
       </c>
       <c r="J2">
-        <v>1.010831149879436</v>
+        <v>1.028212867046043</v>
       </c>
       <c r="K2">
-        <v>1.043664275450882</v>
+        <v>1.044882923899889</v>
       </c>
       <c r="L2">
-        <v>1.019855732680684</v>
+        <v>1.03718673765476</v>
       </c>
       <c r="M2">
-        <v>1.035903842784949</v>
+        <v>1.049861319745721</v>
       </c>
       <c r="N2">
-        <v>1.007467662292179</v>
+        <v>1.013431309832355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9924646447750056</v>
+        <v>1.023934054689497</v>
       </c>
       <c r="D3">
-        <v>1.035176936573018</v>
+        <v>1.042651281205054</v>
       </c>
       <c r="E3">
-        <v>1.011834287907266</v>
+        <v>1.035155690111072</v>
       </c>
       <c r="F3">
-        <v>1.028165925076903</v>
+        <v>1.047870743835646</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048850375599633</v>
+        <v>1.034179311119238</v>
       </c>
       <c r="J3">
-        <v>1.013162860525455</v>
+        <v>1.028755104314368</v>
       </c>
       <c r="K3">
-        <v>1.045378668420332</v>
+        <v>1.045240367376724</v>
       </c>
       <c r="L3">
-        <v>1.022317953394452</v>
+        <v>1.037764596103085</v>
       </c>
       <c r="M3">
-        <v>1.038450668179386</v>
+        <v>1.050446209527859</v>
       </c>
       <c r="N3">
-        <v>1.008266395413852</v>
+        <v>1.013614153680398</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9951140424466627</v>
+        <v>1.024519712828117</v>
       </c>
       <c r="D4">
-        <v>1.036787619721154</v>
+        <v>1.043004512840821</v>
       </c>
       <c r="E4">
-        <v>1.013949687628177</v>
+        <v>1.035654042481793</v>
       </c>
       <c r="F4">
-        <v>1.030321462729883</v>
+        <v>1.048371639919545</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049226296597271</v>
+        <v>1.034220291378506</v>
       </c>
       <c r="J4">
-        <v>1.01464356270786</v>
+        <v>1.029106261735243</v>
       </c>
       <c r="K4">
-        <v>1.046461433852235</v>
+        <v>1.045470891952494</v>
       </c>
       <c r="L4">
-        <v>1.023882617818736</v>
+        <v>1.038138882385756</v>
       </c>
       <c r="M4">
-        <v>1.04006720548524</v>
+        <v>1.050824715417547</v>
       </c>
       <c r="N4">
-        <v>1.008773171038307</v>
+        <v>1.013732476509294</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9962165380836034</v>
+        <v>1.024766139084791</v>
       </c>
       <c r="D5">
-        <v>1.037457766969061</v>
+        <v>1.04315299556619</v>
       </c>
       <c r="E5">
-        <v>1.014831291239577</v>
+        <v>1.035863795599169</v>
       </c>
       <c r="F5">
-        <v>1.031219297374864</v>
+        <v>1.048582383190395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0493799415227</v>
+        <v>1.034237183216239</v>
       </c>
       <c r="J5">
-        <v>1.015259522888444</v>
+        <v>1.029253957417717</v>
       </c>
       <c r="K5">
-        <v>1.046910380649032</v>
+        <v>1.045567619678836</v>
       </c>
       <c r="L5">
-        <v>1.024533754843306</v>
+        <v>1.03829632025776</v>
       </c>
       <c r="M5">
-        <v>1.040739454571633</v>
+        <v>1.050983847838367</v>
       </c>
       <c r="N5">
-        <v>1.008983875204814</v>
+        <v>1.013782221497607</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.996400999812602</v>
+        <v>1.024807527738854</v>
       </c>
       <c r="D6">
-        <v>1.037569882222821</v>
+        <v>1.043177925477267</v>
       </c>
       <c r="E6">
-        <v>1.014978871032999</v>
+        <v>1.03589902843045</v>
       </c>
       <c r="F6">
-        <v>1.031369564493211</v>
+        <v>1.048617777618027</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049405482962233</v>
+        <v>1.034239999689084</v>
       </c>
       <c r="J6">
-        <v>1.01536256802393</v>
+        <v>1.029278760190116</v>
       </c>
       <c r="K6">
-        <v>1.046985397557497</v>
+        <v>1.045583849805984</v>
       </c>
       <c r="L6">
-        <v>1.024642699115533</v>
+        <v>1.038322759883177</v>
       </c>
       <c r="M6">
-        <v>1.040851902662026</v>
+        <v>1.05101056732157</v>
       </c>
       <c r="N6">
-        <v>1.009019117687981</v>
+        <v>1.013790574007684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.995128817981866</v>
+        <v>1.024523004742483</v>
       </c>
       <c r="D7">
-        <v>1.036796601513922</v>
+        <v>1.043006496939262</v>
       </c>
       <c r="E7">
-        <v>1.013961497643303</v>
+        <v>1.035656844249747</v>
       </c>
       <c r="F7">
-        <v>1.030333492161725</v>
+        <v>1.048374455229669</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049228366804623</v>
+        <v>1.034220518410321</v>
       </c>
       <c r="J7">
-        <v>1.014651818594477</v>
+        <v>1.029108234982156</v>
       </c>
       <c r="K7">
-        <v>1.046467457106313</v>
+        <v>1.045472185161291</v>
       </c>
       <c r="L7">
-        <v>1.023891344220515</v>
+        <v>1.038140985734649</v>
       </c>
       <c r="M7">
-        <v>1.040076216729172</v>
+        <v>1.050826841721402</v>
       </c>
       <c r="N7">
-        <v>1.008775995606759</v>
+        <v>1.013733141196721</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9897142575600637</v>
+        <v>1.023335578364427</v>
       </c>
       <c r="D8">
-        <v>1.033504754740936</v>
+        <v>1.042289824829538</v>
       </c>
       <c r="E8">
-        <v>1.009642964382831</v>
+        <v>1.034646644698654</v>
       </c>
       <c r="F8">
-        <v>1.025931366025338</v>
+        <v>1.047358826636917</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048450646704893</v>
+        <v>1.034136238121153</v>
       </c>
       <c r="J8">
-        <v>1.011625093612974</v>
+        <v>1.028396057147096</v>
       </c>
       <c r="K8">
-        <v>1.044249230761465</v>
+        <v>1.045003881085834</v>
       </c>
       <c r="L8">
-        <v>1.02069388086093</v>
+        <v>1.037381949482795</v>
       </c>
       <c r="M8">
-        <v>1.03677117339296</v>
+        <v>1.050058975999698</v>
       </c>
       <c r="N8">
-        <v>1.007739719711353</v>
+        <v>1.013493100280031</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9797799559336836</v>
+        <v>1.021250183753032</v>
       </c>
       <c r="D9">
-        <v>1.027469167051577</v>
+        <v>1.041026612168894</v>
       </c>
       <c r="E9">
-        <v>1.001767463550821</v>
+        <v>1.032874545193919</v>
       </c>
       <c r="F9">
-        <v>1.017888662983023</v>
+        <v>1.045574649608362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04693588993032</v>
+        <v>1.033977026547863</v>
       </c>
       <c r="J9">
-        <v>1.006067512558474</v>
+        <v>1.027143410803385</v>
       </c>
       <c r="K9">
-        <v>1.04013176021143</v>
+        <v>1.044172879212099</v>
       </c>
       <c r="L9">
-        <v>1.014831929832241</v>
+        <v>1.036047352429641</v>
       </c>
       <c r="M9">
-        <v>1.03069802632539</v>
+        <v>1.048706306764949</v>
       </c>
       <c r="N9">
-        <v>1.005833630062743</v>
+        <v>1.013070219926541</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9728651644273016</v>
+        <v>1.019864711170086</v>
       </c>
       <c r="D10">
-        <v>1.02327743125056</v>
+        <v>1.040184365703948</v>
       </c>
       <c r="E10">
-        <v>0.996321829908138</v>
+        <v>1.031698633340708</v>
       </c>
       <c r="F10">
-        <v>1.012318786992732</v>
+        <v>1.044389016434975</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045825649258262</v>
+        <v>1.033863737984512</v>
       </c>
       <c r="J10">
-        <v>1.002198327070775</v>
+        <v>1.026309932324711</v>
       </c>
       <c r="K10">
-        <v>1.037238749620795</v>
+        <v>1.043615080349202</v>
       </c>
       <c r="L10">
-        <v>1.010757813945069</v>
+        <v>1.035159670916014</v>
       </c>
       <c r="M10">
-        <v>1.026469127925937</v>
+        <v>1.04780490739023</v>
       </c>
       <c r="N10">
-        <v>1.004504651166977</v>
+        <v>1.012788396813636</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.969795123039945</v>
+        <v>1.019265939750878</v>
       </c>
       <c r="D11">
-        <v>1.021420125166848</v>
+        <v>1.039819665770582</v>
       </c>
       <c r="E11">
-        <v>0.9939135169496373</v>
+        <v>1.031190775039438</v>
       </c>
       <c r="F11">
-        <v>1.00985379639369</v>
+        <v>1.043876556612105</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045320276369561</v>
+        <v>1.033812997156808</v>
       </c>
       <c r="J11">
-        <v>1.000480776588227</v>
+        <v>1.025949425986423</v>
       </c>
       <c r="K11">
-        <v>1.035949087351012</v>
+        <v>1.043372666708751</v>
       </c>
       <c r="L11">
-        <v>1.008951135524873</v>
+        <v>1.034775799236199</v>
       </c>
       <c r="M11">
-        <v>1.024592246674438</v>
+        <v>1.047414703980174</v>
       </c>
       <c r="N11">
-        <v>1.003914308839371</v>
+        <v>1.012666393287281</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9686427664424571</v>
+        <v>1.019043703137354</v>
       </c>
       <c r="D12">
-        <v>1.020723673993885</v>
+        <v>1.039684201911456</v>
       </c>
       <c r="E12">
-        <v>0.9930110418625938</v>
+        <v>1.031002333918701</v>
       </c>
       <c r="F12">
-        <v>1.008929850177962</v>
+        <v>1.043686347686932</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045128783390896</v>
+        <v>1.033793897195289</v>
       </c>
       <c r="J12">
-        <v>0.9998361730314835</v>
+        <v>1.025815578482735</v>
       </c>
       <c r="K12">
-        <v>1.035464327125407</v>
+        <v>1.043282492444173</v>
       </c>
       <c r="L12">
-        <v>1.008273375461703</v>
+        <v>1.034633288816565</v>
       </c>
       <c r="M12">
-        <v>1.023887945006192</v>
+        <v>1.0472697831575</v>
       </c>
       <c r="N12">
-        <v>1.003692696034339</v>
+        <v>1.012621080391725</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9688905043030196</v>
+        <v>1.019091365760575</v>
       </c>
       <c r="D13">
-        <v>1.020873365821145</v>
+        <v>1.03971325924657</v>
       </c>
       <c r="E13">
-        <v>0.9932049902761978</v>
+        <v>1.031042746095638</v>
       </c>
       <c r="F13">
-        <v>1.009128422918995</v>
+        <v>1.043727141710355</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045170031355636</v>
+        <v>1.033798005618448</v>
       </c>
       <c r="J13">
-        <v>0.9999747475663003</v>
+        <v>1.025844286464895</v>
       </c>
       <c r="K13">
-        <v>1.035568571587653</v>
+        <v>1.043301841034074</v>
       </c>
       <c r="L13">
-        <v>1.008419064315837</v>
+        <v>1.034663854295053</v>
       </c>
       <c r="M13">
-        <v>1.024039347956001</v>
+        <v>1.047300868318053</v>
       </c>
       <c r="N13">
-        <v>1.003740339947033</v>
+        <v>1.012630799943701</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.969700117447271</v>
+        <v>1.019247566050617</v>
       </c>
       <c r="D14">
-        <v>1.021362691512647</v>
+        <v>1.039808468233671</v>
       </c>
       <c r="E14">
-        <v>0.9938390818126568</v>
+        <v>1.031175194345625</v>
       </c>
       <c r="F14">
-        <v>1.009777594897786</v>
+        <v>1.043860830984501</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045304524954889</v>
+        <v>1.033811423495745</v>
       </c>
       <c r="J14">
-        <v>1.000427630445114</v>
+        <v>1.025938360866776</v>
       </c>
       <c r="K14">
-        <v>1.035909134656978</v>
+        <v>1.043365215539819</v>
       </c>
       <c r="L14">
-        <v>1.008895249631112</v>
+        <v>1.034764017709147</v>
       </c>
       <c r="M14">
-        <v>1.024534176254259</v>
+        <v>1.047402724400169</v>
       </c>
       <c r="N14">
-        <v>1.003896038437897</v>
+        <v>1.012662647611648</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9701973371024155</v>
+        <v>1.01934382926962</v>
       </c>
       <c r="D15">
-        <v>1.021663304622542</v>
+        <v>1.039867129954412</v>
       </c>
       <c r="E15">
-        <v>0.9942287058538261</v>
+        <v>1.031256826649802</v>
       </c>
       <c r="F15">
-        <v>1.01017645548396</v>
+        <v>1.043943220169773</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045386888376431</v>
+        <v>1.033819657249106</v>
       </c>
       <c r="J15">
-        <v>1.000705779060815</v>
+        <v>1.025996331277054</v>
       </c>
       <c r="K15">
-        <v>1.036118203363917</v>
+        <v>1.043404245348172</v>
       </c>
       <c r="L15">
-        <v>1.009187749233602</v>
+        <v>1.034825741889969</v>
       </c>
       <c r="M15">
-        <v>1.024838101178689</v>
+        <v>1.04746548374599</v>
       </c>
       <c r="N15">
-        <v>1.003991657219708</v>
+        <v>1.012682270640972</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9730672632769651</v>
+        <v>1.019904473947808</v>
       </c>
       <c r="D16">
-        <v>1.023399786034447</v>
+        <v>1.040208569789051</v>
       </c>
       <c r="E16">
-        <v>0.9964805712579485</v>
+        <v>1.031732366177989</v>
       </c>
       <c r="F16">
-        <v>1.012481230351669</v>
+        <v>1.04442304642564</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045858663989373</v>
+        <v>1.033867070026461</v>
       </c>
       <c r="J16">
-        <v>1.002311402161889</v>
+        <v>1.026333866375434</v>
       </c>
       <c r="K16">
-        <v>1.037323547233668</v>
+        <v>1.043631150077946</v>
       </c>
       <c r="L16">
-        <v>1.010876796609329</v>
+        <v>1.035185157879436</v>
       </c>
       <c r="M16">
-        <v>1.02659270376421</v>
+        <v>1.047830806344578</v>
       </c>
       <c r="N16">
-        <v>1.004543508476515</v>
+        <v>1.012796494411198</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.974846758940961</v>
+        <v>1.020256459690035</v>
       </c>
       <c r="D17">
-        <v>1.024477572518012</v>
+        <v>1.040422747076768</v>
       </c>
       <c r="E17">
-        <v>0.9978793873428147</v>
+        <v>1.032031014082845</v>
       </c>
       <c r="F17">
-        <v>1.013912473687264</v>
+        <v>1.044724278523407</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046147950727541</v>
+        <v>1.033896359922902</v>
       </c>
       <c r="J17">
-        <v>1.003307075945583</v>
+        <v>1.026545699920749</v>
       </c>
       <c r="K17">
-        <v>1.038069614218988</v>
+        <v>1.043773246149656</v>
       </c>
       <c r="L17">
-        <v>1.011924701026587</v>
+        <v>1.035410744997753</v>
       </c>
       <c r="M17">
-        <v>1.027680886244562</v>
+        <v>1.048059993871424</v>
       </c>
       <c r="N17">
-        <v>1.00488561825934</v>
+        <v>1.012868151729479</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9758774290949478</v>
+        <v>1.020461877628617</v>
       </c>
       <c r="D18">
-        <v>1.025102165196217</v>
+        <v>1.040547672759287</v>
       </c>
       <c r="E18">
-        <v>0.9986904636283677</v>
+        <v>1.032205337521052</v>
       </c>
       <c r="F18">
-        <v>1.01474218534941</v>
+        <v>1.044900071421927</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04631431548089</v>
+        <v>1.033913281485505</v>
       </c>
       <c r="J18">
-        <v>1.003883787812947</v>
+        <v>1.026669296907722</v>
       </c>
       <c r="K18">
-        <v>1.038501227287592</v>
+        <v>1.043856043073853</v>
       </c>
       <c r="L18">
-        <v>1.012531839726218</v>
+        <v>1.035542374318886</v>
       </c>
       <c r="M18">
-        <v>1.028311210618295</v>
+        <v>1.048193685423122</v>
       </c>
       <c r="N18">
-        <v>1.005083735711122</v>
+        <v>1.012909950875432</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9762276439823701</v>
+        <v>1.020531938556871</v>
       </c>
       <c r="D19">
-        <v>1.02531445255925</v>
+        <v>1.040590269070262</v>
       </c>
       <c r="E19">
-        <v>0.9989662111300738</v>
+        <v>1.032264798821977</v>
       </c>
       <c r="F19">
-        <v>1.01502423932038</v>
+        <v>1.044960027340161</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04637064153325</v>
+        <v>1.033919023674555</v>
       </c>
       <c r="J19">
-        <v>1.004079753700914</v>
+        <v>1.026711446705876</v>
       </c>
       <c r="K19">
-        <v>1.038647798111567</v>
+        <v>1.04388426016577</v>
       </c>
       <c r="L19">
-        <v>1.012738173621073</v>
+        <v>1.035587264642304</v>
       </c>
       <c r="M19">
-        <v>1.02852539764503</v>
+        <v>1.048239272487175</v>
       </c>
       <c r="N19">
-        <v>1.005151049039403</v>
+        <v>1.012924203738017</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9746565931046907</v>
+        <v>1.020218683500183</v>
       </c>
       <c r="D20">
-        <v>1.024362357900908</v>
+        <v>1.040399767896619</v>
       </c>
       <c r="E20">
-        <v>0.9977298096903182</v>
+        <v>1.031998958822047</v>
       </c>
       <c r="F20">
-        <v>1.013759445646766</v>
+        <v>1.044691949916461</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046117158797431</v>
+        <v>1.033893234221501</v>
       </c>
       <c r="J20">
-        <v>1.003200670319942</v>
+        <v>1.026522968240271</v>
       </c>
       <c r="K20">
-        <v>1.037989937204828</v>
+        <v>1.043758009398272</v>
       </c>
       <c r="L20">
-        <v>1.011812695463558</v>
+        <v>1.035386536641779</v>
       </c>
       <c r="M20">
-        <v>1.02756459097934</v>
+        <v>1.048035403135781</v>
       </c>
       <c r="N20">
-        <v>1.004849061648463</v>
+        <v>1.012860463300394</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9694620430462216</v>
+        <v>1.019201564150913</v>
       </c>
       <c r="D21">
-        <v>1.021218780316579</v>
+        <v>1.039780431489096</v>
       </c>
       <c r="E21">
-        <v>0.9936525793064992</v>
+        <v>1.031136186099522</v>
       </c>
       <c r="F21">
-        <v>1.009586663010317</v>
+        <v>1.043821458902664</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045265024770489</v>
+        <v>1.033807479231048</v>
       </c>
       <c r="J21">
-        <v>1.000294453162849</v>
+        <v>1.025910656617564</v>
       </c>
       <c r="K21">
-        <v>1.035809006681254</v>
+        <v>1.043346556931914</v>
       </c>
       <c r="L21">
-        <v>1.00875521168161</v>
+        <v>1.034734519953605</v>
       </c>
       <c r="M21">
-        <v>1.024388661142966</v>
+        <v>1.047372729808642</v>
       </c>
       <c r="N21">
-        <v>1.003850254334749</v>
+        <v>1.012653269135116</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.96612622889888</v>
+        <v>1.018563066806547</v>
       </c>
       <c r="D22">
-        <v>1.019204189316156</v>
+        <v>1.039391042375298</v>
       </c>
       <c r="E22">
-        <v>0.9910430431768461</v>
+        <v>1.030594885076326</v>
       </c>
       <c r="F22">
-        <v>1.006914635931907</v>
+        <v>1.043274966230158</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044707373201759</v>
+        <v>1.033752100814226</v>
       </c>
       <c r="J22">
-        <v>0.9984286878307619</v>
+        <v>1.025526023219452</v>
       </c>
       <c r="K22">
-        <v>1.034404571616904</v>
+        <v>1.043087103049904</v>
       </c>
       <c r="L22">
-        <v>1.006794052171187</v>
+        <v>1.034325015168299</v>
       </c>
       <c r="M22">
-        <v>1.022350345894155</v>
+        <v>1.046956186383701</v>
       </c>
       <c r="N22">
-        <v>1.003208711842514</v>
+        <v>1.012523025058976</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9679014350145078</v>
+        <v>1.018901450515405</v>
       </c>
       <c r="D23">
-        <v>1.020275848872149</v>
+        <v>1.039597463022225</v>
       </c>
       <c r="E23">
-        <v>0.9924308958816722</v>
+        <v>1.030881728565155</v>
       </c>
       <c r="F23">
-        <v>1.008335839952083</v>
+        <v>1.043564593924192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045005094961525</v>
+        <v>1.033781596177944</v>
       </c>
       <c r="J23">
-        <v>0.9994215186158566</v>
+        <v>1.025729890966548</v>
       </c>
       <c r="K23">
-        <v>1.035152294622109</v>
+        <v>1.043224715712319</v>
       </c>
       <c r="L23">
-        <v>1.007837477339222</v>
+        <v>1.03454205883314</v>
       </c>
       <c r="M23">
-        <v>1.023434922617441</v>
+        <v>1.047176993324215</v>
       </c>
       <c r="N23">
-        <v>1.003550124267778</v>
+        <v>1.012592067177703</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.974742543312731</v>
+        <v>1.020235752592701</v>
       </c>
       <c r="D24">
-        <v>1.024414430964554</v>
+        <v>1.040410151200222</v>
       </c>
       <c r="E24">
-        <v>0.9977974122918247</v>
+        <v>1.032013442821903</v>
       </c>
       <c r="F24">
-        <v>1.01382860819306</v>
+        <v>1.044706557546681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04613107966795</v>
+        <v>1.033894647094345</v>
       </c>
       <c r="J24">
-        <v>1.003248762929829</v>
+        <v>1.026533239590736</v>
       </c>
       <c r="K24">
-        <v>1.038025950792599</v>
+        <v>1.043764894494156</v>
       </c>
       <c r="L24">
-        <v>1.011863318563524</v>
+        <v>1.03539747520714</v>
       </c>
       <c r="M24">
-        <v>1.027617153363416</v>
+        <v>1.048046514598977</v>
       </c>
       <c r="N24">
-        <v>1.004865584417672</v>
+        <v>1.01286393736244</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9823975424496761</v>
+        <v>1.02178846995074</v>
       </c>
       <c r="D25">
-        <v>1.029058354848518</v>
+        <v>1.04135321065727</v>
       </c>
       <c r="E25">
-        <v>1.003836615016349</v>
+        <v>1.03333171605175</v>
       </c>
       <c r="F25">
-        <v>1.020003339237188</v>
+        <v>1.046035238430111</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047344927695193</v>
+        <v>1.034019449706743</v>
       </c>
       <c r="J25">
-        <v>1.007532176087234</v>
+        <v>1.027466969762562</v>
       </c>
       <c r="K25">
-        <v>1.041221723324802</v>
+        <v>1.044388389442056</v>
       </c>
       <c r="L25">
-        <v>1.0163756630086</v>
+        <v>1.036392022708561</v>
       </c>
       <c r="M25">
-        <v>1.03229886704423</v>
+        <v>1.049055944911968</v>
       </c>
       <c r="N25">
-        <v>1.006336326240141</v>
+        <v>1.013179529585157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02303035848436</v>
+        <v>0.9882946054546136</v>
       </c>
       <c r="D2">
-        <v>1.042105295979751</v>
+        <v>1.032641705679424</v>
       </c>
       <c r="E2">
-        <v>1.034387117077619</v>
+        <v>1.008513747185299</v>
       </c>
       <c r="F2">
-        <v>1.047097730243341</v>
+        <v>1.024779257135507</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034113813033221</v>
+        <v>1.04824075181183</v>
       </c>
       <c r="J2">
-        <v>1.028212867046043</v>
+        <v>1.010831149879436</v>
       </c>
       <c r="K2">
-        <v>1.044882923899889</v>
+        <v>1.043664275450881</v>
       </c>
       <c r="L2">
-        <v>1.03718673765476</v>
+        <v>1.019855732680684</v>
       </c>
       <c r="M2">
-        <v>1.049861319745721</v>
+        <v>1.035903842784949</v>
       </c>
       <c r="N2">
-        <v>1.013431309832355</v>
+        <v>1.007467662292179</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023934054689497</v>
+        <v>0.9924646447750055</v>
       </c>
       <c r="D3">
-        <v>1.042651281205054</v>
+        <v>1.035176936573018</v>
       </c>
       <c r="E3">
-        <v>1.035155690111072</v>
+        <v>1.011834287907266</v>
       </c>
       <c r="F3">
-        <v>1.047870743835646</v>
+        <v>1.028165925076902</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034179311119238</v>
+        <v>1.048850375599633</v>
       </c>
       <c r="J3">
-        <v>1.028755104314368</v>
+        <v>1.013162860525455</v>
       </c>
       <c r="K3">
-        <v>1.045240367376724</v>
+        <v>1.045378668420332</v>
       </c>
       <c r="L3">
-        <v>1.037764596103085</v>
+        <v>1.022317953394452</v>
       </c>
       <c r="M3">
-        <v>1.050446209527859</v>
+        <v>1.038450668179386</v>
       </c>
       <c r="N3">
-        <v>1.013614153680398</v>
+        <v>1.008266395413852</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024519712828117</v>
+        <v>0.9951140424466626</v>
       </c>
       <c r="D4">
-        <v>1.043004512840821</v>
+        <v>1.036787619721154</v>
       </c>
       <c r="E4">
-        <v>1.035654042481793</v>
+        <v>1.013949687628176</v>
       </c>
       <c r="F4">
-        <v>1.048371639919545</v>
+        <v>1.030321462729882</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034220291378506</v>
+        <v>1.049226296597271</v>
       </c>
       <c r="J4">
-        <v>1.029106261735243</v>
+        <v>1.01464356270786</v>
       </c>
       <c r="K4">
-        <v>1.045470891952494</v>
+        <v>1.046461433852234</v>
       </c>
       <c r="L4">
-        <v>1.038138882385756</v>
+        <v>1.023882617818736</v>
       </c>
       <c r="M4">
-        <v>1.050824715417547</v>
+        <v>1.040067205485239</v>
       </c>
       <c r="N4">
-        <v>1.013732476509294</v>
+        <v>1.008773171038307</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024766139084791</v>
+        <v>0.9962165380836037</v>
       </c>
       <c r="D5">
-        <v>1.04315299556619</v>
+        <v>1.037457766969061</v>
       </c>
       <c r="E5">
-        <v>1.035863795599169</v>
+        <v>1.014831291239577</v>
       </c>
       <c r="F5">
-        <v>1.048582383190395</v>
+        <v>1.031219297374864</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034237183216239</v>
+        <v>1.0493799415227</v>
       </c>
       <c r="J5">
-        <v>1.029253957417717</v>
+        <v>1.015259522888444</v>
       </c>
       <c r="K5">
-        <v>1.045567619678836</v>
+        <v>1.046910380649032</v>
       </c>
       <c r="L5">
-        <v>1.03829632025776</v>
+        <v>1.024533754843306</v>
       </c>
       <c r="M5">
-        <v>1.050983847838367</v>
+        <v>1.040739454571633</v>
       </c>
       <c r="N5">
-        <v>1.013782221497607</v>
+        <v>1.008983875204814</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024807527738854</v>
+        <v>0.996400999812602</v>
       </c>
       <c r="D6">
-        <v>1.043177925477267</v>
+        <v>1.037569882222821</v>
       </c>
       <c r="E6">
-        <v>1.03589902843045</v>
+        <v>1.014978871032999</v>
       </c>
       <c r="F6">
-        <v>1.048617777618027</v>
+        <v>1.031369564493211</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034239999689084</v>
+        <v>1.049405482962233</v>
       </c>
       <c r="J6">
-        <v>1.029278760190116</v>
+        <v>1.01536256802393</v>
       </c>
       <c r="K6">
-        <v>1.045583849805984</v>
+        <v>1.046985397557496</v>
       </c>
       <c r="L6">
-        <v>1.038322759883177</v>
+        <v>1.024642699115533</v>
       </c>
       <c r="M6">
-        <v>1.05101056732157</v>
+        <v>1.040851902662026</v>
       </c>
       <c r="N6">
-        <v>1.013790574007684</v>
+        <v>1.009019117687981</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024523004742483</v>
+        <v>0.995128817981866</v>
       </c>
       <c r="D7">
-        <v>1.043006496939262</v>
+        <v>1.036796601513921</v>
       </c>
       <c r="E7">
-        <v>1.035656844249747</v>
+        <v>1.013961497643303</v>
       </c>
       <c r="F7">
-        <v>1.048374455229669</v>
+        <v>1.030333492161724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034220518410321</v>
+        <v>1.049228366804623</v>
       </c>
       <c r="J7">
-        <v>1.029108234982156</v>
+        <v>1.014651818594477</v>
       </c>
       <c r="K7">
-        <v>1.045472185161291</v>
+        <v>1.046467457106313</v>
       </c>
       <c r="L7">
-        <v>1.038140985734649</v>
+        <v>1.023891344220515</v>
       </c>
       <c r="M7">
-        <v>1.050826841721402</v>
+        <v>1.040076216729172</v>
       </c>
       <c r="N7">
-        <v>1.013733141196721</v>
+        <v>1.008775995606759</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023335578364427</v>
+        <v>0.9897142575600631</v>
       </c>
       <c r="D8">
-        <v>1.042289824829538</v>
+        <v>1.033504754740936</v>
       </c>
       <c r="E8">
-        <v>1.034646644698654</v>
+        <v>1.00964296438283</v>
       </c>
       <c r="F8">
-        <v>1.047358826636917</v>
+        <v>1.025931366025337</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034136238121153</v>
+        <v>1.048450646704893</v>
       </c>
       <c r="J8">
-        <v>1.028396057147096</v>
+        <v>1.011625093612974</v>
       </c>
       <c r="K8">
-        <v>1.045003881085834</v>
+        <v>1.044249230761464</v>
       </c>
       <c r="L8">
-        <v>1.037381949482795</v>
+        <v>1.020693880860929</v>
       </c>
       <c r="M8">
-        <v>1.050058975999698</v>
+        <v>1.036771173392959</v>
       </c>
       <c r="N8">
-        <v>1.013493100280031</v>
+        <v>1.007739719711353</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021250183753032</v>
+        <v>0.9797799559336837</v>
       </c>
       <c r="D9">
-        <v>1.041026612168894</v>
+        <v>1.027469167051577</v>
       </c>
       <c r="E9">
-        <v>1.032874545193919</v>
+        <v>1.001767463550821</v>
       </c>
       <c r="F9">
-        <v>1.045574649608362</v>
+        <v>1.017888662983023</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033977026547863</v>
+        <v>1.04693588993032</v>
       </c>
       <c r="J9">
-        <v>1.027143410803385</v>
+        <v>1.006067512558474</v>
       </c>
       <c r="K9">
-        <v>1.044172879212099</v>
+        <v>1.040131760211431</v>
       </c>
       <c r="L9">
-        <v>1.036047352429641</v>
+        <v>1.014831929832241</v>
       </c>
       <c r="M9">
-        <v>1.048706306764949</v>
+        <v>1.030698026325391</v>
       </c>
       <c r="N9">
-        <v>1.013070219926541</v>
+        <v>1.005833630062743</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019864711170086</v>
+        <v>0.9728651644273018</v>
       </c>
       <c r="D10">
-        <v>1.040184365703948</v>
+        <v>1.02327743125056</v>
       </c>
       <c r="E10">
-        <v>1.031698633340708</v>
+        <v>0.9963218299081378</v>
       </c>
       <c r="F10">
-        <v>1.044389016434975</v>
+        <v>1.012318786992731</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033863737984512</v>
+        <v>1.045825649258262</v>
       </c>
       <c r="J10">
-        <v>1.026309932324711</v>
+        <v>1.002198327070775</v>
       </c>
       <c r="K10">
-        <v>1.043615080349202</v>
+        <v>1.037238749620795</v>
       </c>
       <c r="L10">
-        <v>1.035159670916014</v>
+        <v>1.010757813945069</v>
       </c>
       <c r="M10">
-        <v>1.04780490739023</v>
+        <v>1.026469127925937</v>
       </c>
       <c r="N10">
-        <v>1.012788396813636</v>
+        <v>1.004504651166977</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019265939750878</v>
+        <v>0.9697951230399454</v>
       </c>
       <c r="D11">
-        <v>1.039819665770582</v>
+        <v>1.021420125166848</v>
       </c>
       <c r="E11">
-        <v>1.031190775039438</v>
+        <v>0.9939135169496376</v>
       </c>
       <c r="F11">
-        <v>1.043876556612105</v>
+        <v>1.00985379639369</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033812997156808</v>
+        <v>1.045320276369561</v>
       </c>
       <c r="J11">
-        <v>1.025949425986423</v>
+        <v>1.000480776588227</v>
       </c>
       <c r="K11">
-        <v>1.043372666708751</v>
+        <v>1.035949087351012</v>
       </c>
       <c r="L11">
-        <v>1.034775799236199</v>
+        <v>1.008951135524874</v>
       </c>
       <c r="M11">
-        <v>1.047414703980174</v>
+        <v>1.024592246674438</v>
       </c>
       <c r="N11">
-        <v>1.012666393287281</v>
+        <v>1.003914308839371</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019043703137354</v>
+        <v>0.9686427664424565</v>
       </c>
       <c r="D12">
-        <v>1.039684201911456</v>
+        <v>1.020723673993885</v>
       </c>
       <c r="E12">
-        <v>1.031002333918701</v>
+        <v>0.9930110418625934</v>
       </c>
       <c r="F12">
-        <v>1.043686347686932</v>
+        <v>1.008929850177962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033793897195289</v>
+        <v>1.045128783390896</v>
       </c>
       <c r="J12">
-        <v>1.025815578482735</v>
+        <v>0.9998361730314831</v>
       </c>
       <c r="K12">
-        <v>1.043282492444173</v>
+        <v>1.035464327125407</v>
       </c>
       <c r="L12">
-        <v>1.034633288816565</v>
+        <v>1.008273375461702</v>
       </c>
       <c r="M12">
-        <v>1.0472697831575</v>
+        <v>1.023887945006192</v>
       </c>
       <c r="N12">
-        <v>1.012621080391725</v>
+        <v>1.003692696034339</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019091365760575</v>
+        <v>0.9688905043030197</v>
       </c>
       <c r="D13">
-        <v>1.03971325924657</v>
+        <v>1.020873365821145</v>
       </c>
       <c r="E13">
-        <v>1.031042746095638</v>
+        <v>0.9932049902761977</v>
       </c>
       <c r="F13">
-        <v>1.043727141710355</v>
+        <v>1.009128422918995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033798005618448</v>
+        <v>1.045170031355636</v>
       </c>
       <c r="J13">
-        <v>1.025844286464895</v>
+        <v>0.9999747475663004</v>
       </c>
       <c r="K13">
-        <v>1.043301841034074</v>
+        <v>1.035568571587653</v>
       </c>
       <c r="L13">
-        <v>1.034663854295053</v>
+        <v>1.008419064315836</v>
       </c>
       <c r="M13">
-        <v>1.047300868318053</v>
+        <v>1.024039347956001</v>
       </c>
       <c r="N13">
-        <v>1.012630799943701</v>
+        <v>1.003740339947033</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019247566050617</v>
+        <v>0.9697001174472705</v>
       </c>
       <c r="D14">
-        <v>1.039808468233671</v>
+        <v>1.021362691512647</v>
       </c>
       <c r="E14">
-        <v>1.031175194345625</v>
+        <v>0.9938390818126558</v>
       </c>
       <c r="F14">
-        <v>1.043860830984501</v>
+        <v>1.009777594897785</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033811423495745</v>
+        <v>1.045304524954889</v>
       </c>
       <c r="J14">
-        <v>1.025938360866776</v>
+        <v>1.000427630445113</v>
       </c>
       <c r="K14">
-        <v>1.043365215539819</v>
+        <v>1.035909134656978</v>
       </c>
       <c r="L14">
-        <v>1.034764017709147</v>
+        <v>1.008895249631111</v>
       </c>
       <c r="M14">
-        <v>1.047402724400169</v>
+        <v>1.024534176254259</v>
       </c>
       <c r="N14">
-        <v>1.012662647611648</v>
+        <v>1.003896038437897</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01934382926962</v>
+        <v>0.9701973371024154</v>
       </c>
       <c r="D15">
-        <v>1.039867129954412</v>
+        <v>1.021663304622542</v>
       </c>
       <c r="E15">
-        <v>1.031256826649802</v>
+        <v>0.9942287058538262</v>
       </c>
       <c r="F15">
-        <v>1.043943220169773</v>
+        <v>1.01017645548396</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033819657249106</v>
+        <v>1.045386888376432</v>
       </c>
       <c r="J15">
-        <v>1.025996331277054</v>
+        <v>1.000705779060815</v>
       </c>
       <c r="K15">
-        <v>1.043404245348172</v>
+        <v>1.036118203363917</v>
       </c>
       <c r="L15">
-        <v>1.034825741889969</v>
+        <v>1.009187749233602</v>
       </c>
       <c r="M15">
-        <v>1.04746548374599</v>
+        <v>1.024838101178689</v>
       </c>
       <c r="N15">
-        <v>1.012682270640972</v>
+        <v>1.003991657219708</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019904473947808</v>
+        <v>0.9730672632769649</v>
       </c>
       <c r="D16">
-        <v>1.040208569789051</v>
+        <v>1.023399786034447</v>
       </c>
       <c r="E16">
-        <v>1.031732366177989</v>
+        <v>0.9964805712579482</v>
       </c>
       <c r="F16">
-        <v>1.04442304642564</v>
+        <v>1.012481230351668</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033867070026461</v>
+        <v>1.045858663989373</v>
       </c>
       <c r="J16">
-        <v>1.026333866375434</v>
+        <v>1.002311402161888</v>
       </c>
       <c r="K16">
-        <v>1.043631150077946</v>
+        <v>1.037323547233668</v>
       </c>
       <c r="L16">
-        <v>1.035185157879436</v>
+        <v>1.010876796609329</v>
       </c>
       <c r="M16">
-        <v>1.047830806344578</v>
+        <v>1.026592703764209</v>
       </c>
       <c r="N16">
-        <v>1.012796494411198</v>
+        <v>1.004543508476515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020256459690035</v>
+        <v>0.9748467589409607</v>
       </c>
       <c r="D17">
-        <v>1.040422747076768</v>
+        <v>1.024477572518012</v>
       </c>
       <c r="E17">
-        <v>1.032031014082845</v>
+        <v>0.9978793873428143</v>
       </c>
       <c r="F17">
-        <v>1.044724278523407</v>
+        <v>1.013912473687264</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033896359922902</v>
+        <v>1.046147950727541</v>
       </c>
       <c r="J17">
-        <v>1.026545699920749</v>
+        <v>1.003307075945583</v>
       </c>
       <c r="K17">
-        <v>1.043773246149656</v>
+        <v>1.038069614218988</v>
       </c>
       <c r="L17">
-        <v>1.035410744997753</v>
+        <v>1.011924701026586</v>
       </c>
       <c r="M17">
-        <v>1.048059993871424</v>
+        <v>1.027680886244562</v>
       </c>
       <c r="N17">
-        <v>1.012868151729479</v>
+        <v>1.00488561825934</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020461877628617</v>
+        <v>0.9758774290949477</v>
       </c>
       <c r="D18">
-        <v>1.040547672759287</v>
+        <v>1.025102165196216</v>
       </c>
       <c r="E18">
-        <v>1.032205337521052</v>
+        <v>0.9986904636283672</v>
       </c>
       <c r="F18">
-        <v>1.044900071421927</v>
+        <v>1.01474218534941</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033913281485505</v>
+        <v>1.046314315480889</v>
       </c>
       <c r="J18">
-        <v>1.026669296907722</v>
+        <v>1.003883787812946</v>
       </c>
       <c r="K18">
-        <v>1.043856043073853</v>
+        <v>1.038501227287592</v>
       </c>
       <c r="L18">
-        <v>1.035542374318886</v>
+        <v>1.012531839726217</v>
       </c>
       <c r="M18">
-        <v>1.048193685423122</v>
+        <v>1.028311210618294</v>
       </c>
       <c r="N18">
-        <v>1.012909950875432</v>
+        <v>1.005083735711122</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020531938556871</v>
+        <v>0.9762276439823704</v>
       </c>
       <c r="D19">
-        <v>1.040590269070262</v>
+        <v>1.025314452559249</v>
       </c>
       <c r="E19">
-        <v>1.032264798821977</v>
+        <v>0.9989662111300738</v>
       </c>
       <c r="F19">
-        <v>1.044960027340161</v>
+        <v>1.01502423932038</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033919023674555</v>
+        <v>1.04637064153325</v>
       </c>
       <c r="J19">
-        <v>1.026711446705876</v>
+        <v>1.004079753700914</v>
       </c>
       <c r="K19">
-        <v>1.04388426016577</v>
+        <v>1.038647798111567</v>
       </c>
       <c r="L19">
-        <v>1.035587264642304</v>
+        <v>1.012738173621073</v>
       </c>
       <c r="M19">
-        <v>1.048239272487175</v>
+        <v>1.02852539764503</v>
       </c>
       <c r="N19">
-        <v>1.012924203738017</v>
+        <v>1.005151049039403</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020218683500183</v>
+        <v>0.9746565931046903</v>
       </c>
       <c r="D20">
-        <v>1.040399767896619</v>
+        <v>1.024362357900907</v>
       </c>
       <c r="E20">
-        <v>1.031998958822047</v>
+        <v>0.9977298096903175</v>
       </c>
       <c r="F20">
-        <v>1.044691949916461</v>
+        <v>1.013759445646765</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033893234221501</v>
+        <v>1.046117158797431</v>
       </c>
       <c r="J20">
-        <v>1.026522968240271</v>
+        <v>1.003200670319942</v>
       </c>
       <c r="K20">
-        <v>1.043758009398272</v>
+        <v>1.037989937204828</v>
       </c>
       <c r="L20">
-        <v>1.035386536641779</v>
+        <v>1.011812695463557</v>
       </c>
       <c r="M20">
-        <v>1.048035403135781</v>
+        <v>1.027564590979339</v>
       </c>
       <c r="N20">
-        <v>1.012860463300394</v>
+        <v>1.004849061648463</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019201564150913</v>
+        <v>0.9694620430462219</v>
       </c>
       <c r="D21">
-        <v>1.039780431489096</v>
+        <v>1.021218780316578</v>
       </c>
       <c r="E21">
-        <v>1.031136186099522</v>
+        <v>0.9936525793064994</v>
       </c>
       <c r="F21">
-        <v>1.043821458902664</v>
+        <v>1.009586663010317</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033807479231048</v>
+        <v>1.045265024770489</v>
       </c>
       <c r="J21">
-        <v>1.025910656617564</v>
+        <v>1.000294453162849</v>
       </c>
       <c r="K21">
-        <v>1.043346556931914</v>
+        <v>1.035809006681253</v>
       </c>
       <c r="L21">
-        <v>1.034734519953605</v>
+        <v>1.00875521168161</v>
       </c>
       <c r="M21">
-        <v>1.047372729808642</v>
+        <v>1.024388661142966</v>
       </c>
       <c r="N21">
-        <v>1.012653269135116</v>
+        <v>1.003850254334749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018563066806547</v>
+        <v>0.9661262288988804</v>
       </c>
       <c r="D22">
-        <v>1.039391042375298</v>
+        <v>1.019204189316156</v>
       </c>
       <c r="E22">
-        <v>1.030594885076326</v>
+        <v>0.9910430431768462</v>
       </c>
       <c r="F22">
-        <v>1.043274966230158</v>
+        <v>1.006914635931908</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033752100814226</v>
+        <v>1.04470737320176</v>
       </c>
       <c r="J22">
-        <v>1.025526023219452</v>
+        <v>0.9984286878307623</v>
       </c>
       <c r="K22">
-        <v>1.043087103049904</v>
+        <v>1.034404571616904</v>
       </c>
       <c r="L22">
-        <v>1.034325015168299</v>
+        <v>1.006794052171188</v>
       </c>
       <c r="M22">
-        <v>1.046956186383701</v>
+        <v>1.022350345894156</v>
       </c>
       <c r="N22">
-        <v>1.012523025058976</v>
+        <v>1.003208711842514</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018901450515405</v>
+        <v>0.9679014350145074</v>
       </c>
       <c r="D23">
-        <v>1.039597463022225</v>
+        <v>1.020275848872149</v>
       </c>
       <c r="E23">
-        <v>1.030881728565155</v>
+        <v>0.9924308958816718</v>
       </c>
       <c r="F23">
-        <v>1.043564593924192</v>
+        <v>1.008335839952083</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033781596177944</v>
+        <v>1.045005094961525</v>
       </c>
       <c r="J23">
-        <v>1.025729890966548</v>
+        <v>0.9994215186158564</v>
       </c>
       <c r="K23">
-        <v>1.043224715712319</v>
+        <v>1.035152294622109</v>
       </c>
       <c r="L23">
-        <v>1.03454205883314</v>
+        <v>1.007837477339222</v>
       </c>
       <c r="M23">
-        <v>1.047176993324215</v>
+        <v>1.023434922617441</v>
       </c>
       <c r="N23">
-        <v>1.012592067177703</v>
+        <v>1.003550124267778</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020235752592701</v>
+        <v>0.974742543312731</v>
       </c>
       <c r="D24">
-        <v>1.040410151200222</v>
+        <v>1.024414430964554</v>
       </c>
       <c r="E24">
-        <v>1.032013442821903</v>
+        <v>0.9977974122918246</v>
       </c>
       <c r="F24">
-        <v>1.044706557546681</v>
+        <v>1.01382860819306</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033894647094345</v>
+        <v>1.04613107966795</v>
       </c>
       <c r="J24">
-        <v>1.026533239590736</v>
+        <v>1.003248762929829</v>
       </c>
       <c r="K24">
-        <v>1.043764894494156</v>
+        <v>1.038025950792599</v>
       </c>
       <c r="L24">
-        <v>1.03539747520714</v>
+        <v>1.011863318563524</v>
       </c>
       <c r="M24">
-        <v>1.048046514598977</v>
+        <v>1.027617153363416</v>
       </c>
       <c r="N24">
-        <v>1.01286393736244</v>
+        <v>1.004865584417671</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02178846995074</v>
+        <v>0.9823975424496761</v>
       </c>
       <c r="D25">
-        <v>1.04135321065727</v>
+        <v>1.029058354848517</v>
       </c>
       <c r="E25">
-        <v>1.03333171605175</v>
+        <v>1.003836615016349</v>
       </c>
       <c r="F25">
-        <v>1.046035238430111</v>
+        <v>1.020003339237188</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034019449706743</v>
+        <v>1.047344927695192</v>
       </c>
       <c r="J25">
-        <v>1.027466969762562</v>
+        <v>1.007532176087234</v>
       </c>
       <c r="K25">
-        <v>1.044388389442056</v>
+        <v>1.041221723324802</v>
       </c>
       <c r="L25">
-        <v>1.036392022708561</v>
+        <v>1.0163756630086</v>
       </c>
       <c r="M25">
-        <v>1.049055944911968</v>
+        <v>1.032298867044229</v>
       </c>
       <c r="N25">
-        <v>1.013179529585157</v>
+        <v>1.006336326240141</v>
       </c>
     </row>
   </sheetData>
